--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/63_Ordu_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/63_Ordu_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E396DDD5-3355-4FFF-8975-321A85325EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A46D41-1B42-48EB-8E80-917A3B97DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{A8E1DB6A-4A97-4D88-A7F9-63AF7DCCA964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{ED64407F-EE35-4B82-90A0-58910DECE68A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -938,14 +938,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F7056636-81C4-49FE-8383-77580A239A77}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{05AC1C8E-25C7-4DE3-A7B4-6B98E7C7D569}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EC9485BD-0C81-4C15-AD1A-96B192597D8A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{8089A0B6-10E2-40B2-9E0E-6BE7392B9AAE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{54E6C940-C81D-475D-9B92-B196FDCBEC52}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B6F92EEF-C19A-47F9-8968-35A6E0C113AF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{156CFF96-1CBE-4668-A825-0078AC18C54F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{6E9C95DA-8549-46FF-BA2A-4158F0A110C7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{73362BF9-B919-4290-826C-525D6F12D999}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7988767E-9FE8-4E5C-B5B8-2DFA85023DE3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CFA1A035-9071-4CDC-BCB7-0E110B89A9E7}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{988BCFED-ACF6-465A-A0C5-93BFBF2AE143}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{40E6CD3A-CC70-460B-9007-1F2EFA2FAB76}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DF979628-D798-4044-92DD-7163AC85AA79}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E5A8B9A9-08D6-4D5F-9C7C-3EF04DE6852D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F4076FFE-C5EF-4503-9772-BBDE5DEBC0E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4938391C-76EA-47B8-9C30-CC07FF513312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06895C9-19A3-4B21-93C7-BFD8B73F6D5A}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2559,18 +2559,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C299680C-0820-4FAE-93B0-EA7C6F87D893}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{383B7B48-AD03-4703-8993-C87C059CB375}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A48D0F6-F6B2-42D8-842C-6E5C2B38DFF1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FE1EF8E-6C40-47E6-B0EF-DD461DB20B37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{397C3D3C-5E47-4F4D-8FD6-135CE2F9FF02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3117DC2-E485-4D23-BE32-5F533E248727}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1864269-9388-4A8F-A620-84F258AB5162}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{476FE51C-5FE0-4393-870B-34B11EAF6EB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4390210E-E2F4-454E-B0E4-6AE856A8B274}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{11308D80-A147-4DB3-AFC7-C8372EBC1AD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F9EF610-FA2E-4874-8346-63EDD18956F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B85B40A8-CB55-4FBD-8ADD-D7D109923F6C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1D17840-26E5-47D7-BE87-ED375AD48848}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86801E28-C33B-4514-B258-21627BCED296}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB0B13FB-FEA6-4C72-B1FA-EB032D6D5362}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5483BAC4-89D3-46F1-AF86-5F82C8F5FFCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2746B9E5-A6B5-4B94-A0F3-420E81DBD380}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{192033E4-D36C-44A8-BB3A-9D706448571A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CAB3ABC-D9D0-4CD4-943B-06DB48D8C276}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17BADFD8-CE2E-4AB5-951F-690753F69781}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43B26320-1E98-4572-A81B-FA220586607C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15C1A092-92AD-4BB0-94AB-4CEB4F494BD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1845C0C2-75A2-4967-9D72-9850CB19E1D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B62ED029-BABD-4DFC-9015-245762C1D8C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2583,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A76D30A-459D-4B67-A6F7-4B22E8F15036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CE63C1-508C-4E0E-AE9D-2E2C87F3BF1D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3815,18 +3815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B21B177B-06A6-41EA-B82F-71EE86CBA335}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5ADC4DA-0D10-4477-89E4-59E22664B980}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED1EBD43-74EC-4DD8-858B-961BC6C41881}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78ACA91D-43D5-4FE0-A7ED-E13540C5B599}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D10D5880-33FD-4103-83D1-53EDD49FAAD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{716713E9-2180-4F1F-B047-AABBF6CA8305}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D9286F8-09BE-43E8-A8EC-38814FDB4C4A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D798F83-F057-4DD6-8AAB-1BD32F736DE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F390097A-48F3-481E-BB60-4B103BE1ED9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9065040-BE29-4912-BA0B-91786F51CAB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3823B897-9FF6-494F-B7CA-8D0691804835}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE2D3596-305F-4F57-857C-F3F43F42E55E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6312C64B-6223-4016-9A18-78A46AB8DEE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C41D0617-BDDB-4405-AFEA-348A016EAADC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BD10B00-79BF-4954-B8DE-AE040B502C86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DB9688F-ABEB-4917-8229-D5BE22C9F89C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13A22645-9A63-40B6-A59E-9DD6C395993A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3874135-0DD4-49A9-BDED-A5FE36A00BBE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88FC8E07-7C9F-48B5-BC63-578DC8DDE072}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE151E29-6A02-4534-99E0-BC0C515FA900}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EA43BFF-9003-426B-9DE7-6840A6ABF442}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3544875B-A454-4BE2-B231-11E0BF176531}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E103A3D-B5D7-4A30-9E1D-478BD19D28BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B21DFA0-8989-4ED1-9B9D-0BAF16F60124}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3839,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7A04CA-563F-4341-ABFB-DC7B94265CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1119BA-51C4-40AA-B34B-0CB002E7C6BE}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5063,18 +5063,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D95FE19-7AB3-4337-9208-29F7C918BCFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AB3D7E8-56B5-46DB-83A3-9B32E41B7864}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{577619CC-B103-43D3-BC54-65F54C6A43F9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{139F8461-182C-4EC8-8D3D-15AF13A06C63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98708967-64AD-4C96-B392-BF3B1EE6C1E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5A09799-493F-4EA2-97F9-6725AB20E020}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61CCED82-B9F3-4F89-8669-63A34DC06409}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08C05AF4-4942-4D67-80E4-8D80257B5D95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49A4031C-0DC8-4CFE-B8B8-1D4006DC5326}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AD40DA2-EF2B-403E-9709-17CED29ED001}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5A4BBEB-AEA4-4D0F-A575-5149E6DD2880}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B08362D-B1C1-4CF6-9EF4-279A3D50B066}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68C6FB07-A4B1-499C-AFDA-ECABCD747CEE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED9E342C-F842-4827-B19A-A3BF8D840322}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C17388CB-B4AE-4CC9-A1C0-2236629E55EF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9869ABB8-58AA-403E-BFD3-42E0075F0028}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFEB9504-DFE6-440A-A663-81252CC893AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A24656A9-44F9-4726-91AD-16412C875F7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{120B452D-5B9D-49EA-BFF1-CF3C67D8A69D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF556A3F-E0E3-4790-BE91-E8C8950CDDB0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D3DA3F4-03F0-40AD-AF08-B28DC4361B92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B42DB5D-AB0F-45B3-B0D5-ED92E480FD8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C28B1E0F-FBBC-4861-9633-CB91FB03194F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE6DA1CE-FBBD-47F7-B7BE-3DFFFF822278}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5087,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0A4437-3308-43D1-83C4-AC90A073F279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA76C059-70BB-4DD6-ACFF-840B04E01DA7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6297,18 +6297,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AAE19CF-61BD-4270-A397-ED5C4468FE3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68987127-2E57-430F-9A24-541CF1DE51AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B826C67-14F4-42AB-B34D-7196F8C8C733}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C861CC0A-C5B1-483E-8F26-62788D0DD28E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{276D5F0C-E556-47CC-9384-D8A8E928F87E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4675222C-CE86-4109-835C-2891F6A4A78F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EB636CE-6D98-44C0-B66B-8C9EB72310D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5266984D-6567-4618-BF1F-5FD39F728791}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D530BBD-4460-4698-BE88-DA6F826BDE7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E76E8392-84AB-4BC7-9FC7-39639369FF9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97749C93-3184-4CAD-8C45-F04101E101CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAEAF0E2-A645-4B07-A176-D49C345549CC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A60C4F83-7ED8-43F0-B18A-60EFFA11FD25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19EF8446-88B5-479F-BD05-8BEE079CB732}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{543761A6-9409-4EB7-BE60-8187E929BEC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{626C644E-FB5A-4D91-8CC6-E3CB8DD0D2AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{161DC9C9-CDA0-409A-BB6B-54918FB076D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEAD87E9-7E1C-45E7-A94B-F425E5BF58B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42A6DA0C-085C-44B7-9257-A381392B2830}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22403D84-ECF7-4222-895C-9378447BF63C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F54C2737-B87F-4931-B8CE-9A9EA8358D90}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA4B56C1-78FF-405F-8C2E-9F4CDADB64AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E383053-A1B6-4110-94CA-C885857F0354}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2078B1DE-6443-439E-91F4-57A646CF2693}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6321,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99E7F98-8AE5-4594-9DDE-E612F2D340DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7491E0-DCA2-481A-A698-7DF94F7A9A0F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7565,18 +7565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCBC0FDB-018C-430A-8A8B-FBA7AD59AD2C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA090DC9-0EE0-41BA-8131-F362702E80A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2BBC817B-9E08-4126-8D16-DE5E98ED5D24}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C21AD3F5-1F59-45F8-A181-99D5037AC603}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E426239F-931C-4A10-BE94-18F9F1467A06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0BC4DFF9-1268-4AAB-9186-88A28E94D206}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C66B4ACE-C88F-49E3-95A7-7A1467E5ADA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F5A21E1-4D5B-4F91-9820-32261F9033F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0EB3BE7-8A97-49D1-AB45-1C02A877B118}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D4758E7-75B0-4B87-B6A8-CF2E52EC4A33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69D5C232-AEB4-4A34-AC6C-594FB22634CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB6B35D2-9CC4-46E0-8037-0677A45305E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{434E999D-8037-470F-B6FB-F3363962E4EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1639E673-0535-40C3-A4EB-09B9193DF169}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA54588E-90D2-43B7-A476-22C4F38EDB04}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{075CD12A-0AB0-409F-AFD5-6EAA8833136B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A382922-83C6-45F2-9BAD-56C98403335A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5643A254-4ED8-459F-B4A9-8F29CA6E15B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93AA15E9-1CA4-41D0-8997-D2350CF2FAE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B62D2F2C-883D-4620-A0CD-8FFED97CD502}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36D483D6-5BBE-4EFA-87AA-721F2D411241}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A344AB76-9ABC-4498-90C7-C6FBF0F49A47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6D6538B-6043-465E-BC4E-B727A44EC318}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1912B01-50B3-410D-99F0-C2F5D8802A1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7589,7 +7589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57350521-187B-4A8A-9CBE-89413A5317F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C891C90-CA31-4CB7-B211-CD5BB30D34A7}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8833,18 +8833,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D5C7BE0-DB37-4D3D-8E67-67AC79530231}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD78A6F2-6876-412B-ABC4-CF0BBAD3F964}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54B197AE-D781-4BB9-8911-E857F6586E3A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A2F75E43-1509-415B-8A69-5946BACAB28E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51DC7A5C-8E46-4898-BEE1-BD723F3FA777}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1731425D-64E7-486E-A99D-44994E584D44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{686F19FF-56DA-4708-8CE4-849B6B4B18CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{464F733D-12F0-4DAC-9460-CBFC175316F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C378CFB-0846-4C32-81FC-61BE25CA974D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B84C5C1-F013-4C8F-ADC7-351A9A65B33A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D3BA83D-E7D6-42A0-838A-72C791AB3EE8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C410EC0-9BD3-4147-9C9B-ED714E1CDDC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{157E5B51-5DE4-4CC6-A6F2-BD0A86B2CFDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42BEA20E-EE2A-49BC-BD23-86CEAC2E777A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1392D58A-BC6E-4C01-9EB6-15A52B68BDF5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E561043E-ED85-4462-B296-4C8A122B21C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B96E8339-79A7-4911-A4FB-8BAF7027786A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43CB0C52-4973-4099-9A08-7930F8AF460A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7FB9441-D051-4BCA-985A-A5809768252A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AF3C754-E459-499E-9046-D380BABDFD65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D5D1225-A0BD-4705-B103-A4811487F8FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{765BC559-3A9F-4DDB-918C-5EA00DC2A9F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD77A25C-3CDE-45A5-AD4B-C5D75F6A4935}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F8E36A2-050E-459A-8153-67EA0E5ACF22}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8857,7 +8857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39EE94E-830F-4458-9823-79FBBA1C7217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFDA5D-D846-4504-898D-0868DA28CEEB}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10101,18 +10101,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B3A0ECC-56A5-452A-8F09-D9F09F77524D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5E20FD3-8743-43AB-9C2B-799BB30FC338}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FA7E6D5-D049-45C2-8CA1-21488D7B8B8F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2139459C-67B4-4830-A4C3-591D12185505}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A828761D-C392-4AD4-92C4-F5580E6EE127}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A7E64F3-1E9E-40A9-A5C9-EE92C4F27923}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15D41B22-D854-424C-8F5F-28E7B5A7A1E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09345CC9-99D4-475C-BA72-6E17A070276C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E2E7929-AA54-4881-8D12-324BD0102B70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA9F3977-3636-46F7-B731-6C8400B5BE56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A46DB532-A0A3-426A-BD1B-65F8EB9A90D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA956A35-82D4-42C0-A17C-AD8665345FEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BD91DC9-6387-4B17-98D4-1729497091C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01597E94-9BE5-416D-86D3-EAE152549D2B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1ABEE8C-4595-41FA-97D0-184F6920AC9F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DDAD4CF1-5BBF-4BE2-8763-A185E946A200}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAE7A0C6-A55B-4DAF-9173-5D73B08CCEF9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5679CC3E-27EC-457B-BCB4-31C2924EFB09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA5B3AFA-ED6A-4CF7-9CA0-F9FAC21BC276}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F12E1879-A055-49F0-B596-644F5000238D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCE8FD7A-B252-4DFE-A987-BD059B61F727}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F66C0F91-CF3E-4A99-8118-21A8D7BC0AE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C536B7B7-453B-4E1F-86F4-4A5C404DBF40}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AE6D72E-5B10-4D3B-ABA8-55222D012AB3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10125,7 +10125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90109E7C-8F85-4E87-9198-2F6C10709317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BA4377-A9DB-44E1-9341-0A69CB4C5C4D}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11365,18 +11365,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B72DCB0-5282-45F6-8EC2-3486C820C1F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F77E41F4-B487-4917-9EA1-B049D4E2DB4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4798835F-C4ED-4E58-BA1E-AC929C984865}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C8C59E0-948B-425F-9849-BF016F627E46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8709EF84-3792-468A-951F-C332AA6B1990}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99E81548-6049-4111-9D4D-9123B62A14DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86860A63-9990-42B1-9B86-AA99212680DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79382471-54C1-4E9C-AC8A-06DA973F918B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C14F79D-0C95-4162-BB1A-D7D95232BE38}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27F8CF08-E2BA-4935-A6B1-DA2320246106}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BF3B91C-E791-41A7-8D58-7C1953174212}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CDA7B3C-302E-4D48-84B2-511B4587F51F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE2FA9CC-021E-4AC1-A42B-968EDB0D092A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDF48A21-1B4A-4221-80F8-D159A859B1B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{842610A0-FC51-4E29-9472-22C34CC4E0D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D7AD98C2-8DD8-4C77-AEE1-13B5369CEB88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDD526F8-7187-4A10-9C6D-9364384A703E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E606E43-B792-4BB3-8AD1-3AE3C41A1707}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5B303AF-B1AC-4BFE-906A-B952194B92F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7B9348E-1DDF-44AE-80DB-44E2D30F2132}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E3486E4-C563-4996-8B18-415A244EEE0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EAD89E4-24B0-4B13-ABD1-7EA33C590BB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60B2DD17-26A5-4984-8CBB-6C0BEF5EE790}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A797D21-EC5B-4ACA-AA8B-A8B7646E1F25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11389,7 +11389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD496C-E3B2-4CD9-8F5D-4DA140D2C748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC1057A-201A-4BBF-8E96-1D76B59B2FA3}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12621,18 +12621,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7EE7CFE-A19C-476D-970D-CAD75FB00A87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A95A476-0693-4FD2-B0AA-5D1F07427C39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73214F83-337B-4C34-AEAD-241FC2A54BE1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5BC981C1-963B-47E0-86CE-9DEC693C9FFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0339CF0-B20C-4866-86C1-8C75FF17F8FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4ABFC09-3EEE-40A0-9229-5FBB1EA63BE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61B40CFE-1252-48B8-A2C5-542D3AA075D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAE11CB0-F088-4A84-9DA5-28DC910AFB02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{972ED9F2-FECB-4EA0-8DF3-0C5AA1D56C7B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8144179C-EC29-4F0D-A9D1-B3D182335D2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C37227D0-E101-4272-813E-9E51DB4FE584}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86580938-BE28-4A6A-A4AB-00D7C092D63D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6FA4A3C-221C-46A6-97D7-6E11619B1714}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5F4D9FB-052E-4CF9-9D10-AA261D11D081}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BBEB6B2-E4E7-4AB1-90FE-D65208AA0AFE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90D08249-5AC4-4602-835D-19F6A7DA758F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A1CEBC0-2896-4283-837D-C77E27AC6B9E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37C7CA02-5C25-43CB-9C43-B02D969AF60A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91763A3D-6897-40B6-AA0D-E2ADF1E3F02D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6322E643-763D-46EC-84CE-54BC4E78F894}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A498309-E783-4DAC-BF00-E7232A568A89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9909B1BC-A786-402D-90E3-D3ABC2F0CA14}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{304CCB9C-7996-4BB9-BA41-0EA945B92DC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8B50AC2-76F8-411F-BA0D-571EB13295D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12645,7 +12645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96604CE1-DD70-421D-B1B0-9F05A8054767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BD627C-BBE8-4600-BD5D-83016BDEA871}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13877,18 +13877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{272A23E6-DD7F-43C7-AF65-23B5DEEF93F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BDC1E36-9D1A-4A55-B8B7-9427E72584F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9C2952B-02DD-465F-AB71-83A84AFD8093}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E57E16B-F406-43C0-917A-D892A2015CFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D40EAB32-7E0B-40B8-BEE5-6EF6208EBB34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFAFC0A9-6165-453D-A167-DF96E0359685}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF16ED6E-DCC9-46D7-97EB-D90C630C0044}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9F1E3FA-F04C-465B-B95C-7D14B9F0CCB3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F505FB94-8EFA-4EAB-B6E3-F72C6F7EC773}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1854BB8-AA66-4478-A9B1-A7BD0CE7C936}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF788082-C7A3-4337-A687-6C5F9E9FAAB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDCA2468-4794-4983-9C6A-8651F940CB93}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F70595B2-8B60-4558-B565-29ABC9C87BCB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B8A8A2C-5700-42ED-BB55-E5ED517FD2BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF31321F-8190-4E8A-B621-D0E89DD1207D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{579E76D2-84EC-4E64-A707-8E494D40937B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AB3C9EE-54D5-48D9-B828-A66A7791CEF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5071DBBD-1723-480E-871C-E9061BDD6F31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFF7EA88-C461-4D9A-B006-BD28628BBD6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DEBA6A71-B65F-420D-8601-12FD2C48D875}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58BB4395-1E3D-44ED-B264-A9158F54C217}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D44238B2-E6E3-4594-A742-0D0E6685DFA3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D38FF26-F14D-43CA-A10F-5FCD273A5EAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F17443B9-652F-4CF7-B8F5-4307532AC700}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13901,7 +13901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8B416C-4B00-4CC5-B402-F11149498896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B90C7F-C17F-40E2-AA70-C305FE1916B5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15133,18 +15133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F11C6E0C-0901-4E2D-9C77-F6F2E2BAAA7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CCDD5CB-8F9D-461C-AFEA-2D347E8CB32B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2FE87B8E-E8D9-4005-82A5-E86106D02337}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D39D3F98-3FAE-42AF-BD4F-A30C1E7746F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FA7A53A-2DC0-4C21-9FB3-FD4BA6042422}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53D8F8F5-89E8-4912-8202-460C760B2243}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AADEC98C-B4F5-45CA-BA14-AA72A611E76B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6B75BEB-35A2-4DDA-ABB5-CFAED465FD10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44FF3DEB-BD9B-43BC-A073-E043FEC4C8E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E62003ED-5D8F-4FFB-97E5-450C5D16D801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A973D546-7EA5-4BD4-9545-96414A5EE327}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{475A9622-0E36-465F-A36A-9E8C8983473A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEB2C4D7-D97B-46C9-BFE5-E8FBAF9E89A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D2C9B5A-8EE2-4DA9-B6D8-3A65C9B86672}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14A5434D-5878-4D13-840B-56BA0A0E6175}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43FE6118-FD4B-4DE1-BDD3-1471CA08E017}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E5EAB0E-9B80-42C7-915E-22573019349D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94DA64A5-ACC3-4334-96B5-BB0BD784B920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5FEEFE9-38F8-485D-B033-F78883BF009B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D28D9A7-AC9C-44A7-AC09-39C926741152}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C84A563-55B6-44B9-B59E-328B81DD3F6C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3627165D-A830-4904-8EF2-F82A01B90EC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A65F7230-776B-4138-A92F-10445358F63F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0150DC7C-29B7-4E42-9F2B-35C12456726B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15157,7 +15157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A86EE6-D26D-4881-A506-73D766458074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495654EE-20A5-4F8D-854E-0E734680FACC}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16389,18 +16389,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0CD5A93-5C3A-4982-810C-92C8F0535ACC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6921CF7-F6D4-4F2C-97AE-92047ECE661D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35C70CF7-4AF3-4DA8-BD09-CA1D26440F4E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83155912-2895-4E2A-85BD-20D891561437}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E14BA311-8286-4E94-A880-781451370DE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA4ED27B-5FCF-4478-BE7D-1683E5100F84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4A1BC7B-7079-4997-A9AF-AD3A76FC4D10}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1899E87-6E93-4F43-9AE4-7A469FA78B48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C650D300-38BE-42D2-9F65-7E195AE72701}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6895A779-6E4E-4F9E-9C32-252DED239E67}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8411C2F-9D2C-473F-9DE0-598CD0757599}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65FB6788-C5F8-4D17-872F-9935ED1D7120}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E8BC62C-F347-4F27-9498-D61634554DD1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55547158-AC62-48F6-87A3-81AAC4AB36AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC3FFA4E-A798-4F50-AC5E-43DB80BF91A7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0781D76C-D3CB-470E-94F8-67F1529FC078}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7813709B-549F-4802-8E55-4FDE571F58C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32A5F034-0DA4-4BF4-BDBC-061CA2B6BE9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6230BBD-E1B6-4142-A7C6-71B5C2C90F56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC856F3D-A801-4AA1-9737-E049A7BBABA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9868B962-8AEF-4D1F-8044-26FF8D8FF320}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D8B8997-FC25-46E8-8A92-D22FE55578E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3FD401C-4EAE-47A1-B192-9D5DBF0E80AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C10DA4D-D6EA-42F1-ABCE-30D239CD8AAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
